--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>bucket 1</t>
+          <t>avcu_bucket 1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>bucket 2</t>
+          <t>avcu_bucket 2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>bucket 3</t>
+          <t>avcu_bucket 3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>bucket 4</t>
+          <t>avcu_bucket 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>avca_bucket 1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>avca_bucket 2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>avca_bucket 3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>avca_bucket 4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>avre_bucket 1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>avre_bucket 2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>avre_bucket 3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>avre_bucket 4</t>
         </is>
       </c>
     </row>
@@ -471,6 +511,30 @@
       <c r="E2" t="n">
         <v>34</v>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,6 +552,30 @@
       <c r="E3" t="n">
         <v>100</v>
       </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -505,6 +593,30 @@
       <c r="E4" t="n">
         <v>253</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -522,6 +634,30 @@
       <c r="E5" t="n">
         <v>192</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -539,6 +675,30 @@
       <c r="E6" t="n">
         <v>330</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>129</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -556,6 +716,30 @@
       <c r="E7" t="n">
         <v>234</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -573,6 +757,30 @@
       <c r="E8" t="n">
         <v>141</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>34</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -590,6 +798,30 @@
       <c r="E9" t="n">
         <v>120</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>16</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -607,6 +839,30 @@
       <c r="E10" t="n">
         <v>166</v>
       </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>13</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -624,6 +880,30 @@
       <c r="E11" t="n">
         <v>370</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -641,6 +921,30 @@
       <c r="E12" t="n">
         <v>152</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>16</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -658,6 +962,30 @@
       <c r="E13" t="n">
         <v>335</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>17</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>17</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -675,6 +1003,30 @@
       <c r="E14" t="n">
         <v>960</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>40</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>249</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>251</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -692,6 +1044,30 @@
       <c r="E15" t="n">
         <v>4205</v>
       </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>291</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1765</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1361</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>653</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -709,6 +1085,30 @@
       <c r="E16" t="n">
         <v>3726</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>82</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1419</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1365</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>484</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -725,6 +1125,30 @@
       </c>
       <c r="E17" t="n">
         <v>1161</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>11</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>233</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>478</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -500,19 +500,19 @@
         <v>2008</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1865</v>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="E2" t="n">
         <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -524,13 +524,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
         <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="M2" t="n">
         <v>14</v>
@@ -541,37 +541,37 @@
         <v>2009</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1793</v>
       </c>
       <c r="C3" t="n">
         <v>98</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="K3" t="n">
         <v>19</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="M3" t="n">
         <v>9</v>
@@ -582,37 +582,37 @@
         <v>2010</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2715</v>
       </c>
       <c r="C4" t="n">
         <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1057</v>
       </c>
       <c r="E4" t="n">
         <v>253</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="K4" t="n">
         <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="M4" t="n">
         <v>13</v>
@@ -623,37 +623,37 @@
         <v>2011</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3931</v>
       </c>
       <c r="C5" t="n">
         <v>69</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2091</v>
       </c>
       <c r="E5" t="n">
         <v>192</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
         <v>40</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="K5" t="n">
         <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="M5" t="n">
         <v>16</v>
@@ -664,19 +664,19 @@
         <v>2012</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4631</v>
       </c>
       <c r="C6" t="n">
         <v>210</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3240</v>
       </c>
       <c r="E6" t="n">
         <v>330</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -688,13 +688,13 @@
         <v>129</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>808</v>
       </c>
       <c r="K6" t="n">
         <v>14</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="M6" t="n">
         <v>21</v>
@@ -705,19 +705,19 @@
         <v>2013</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6168</v>
       </c>
       <c r="C7" t="n">
         <v>109</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2339</v>
       </c>
       <c r="E7" t="n">
         <v>234</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -729,13 +729,13 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="K7" t="n">
         <v>8</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="M7" t="n">
         <v>9</v>
@@ -746,19 +746,19 @@
         <v>2014</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5710</v>
       </c>
       <c r="C8" t="n">
         <v>49</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1863</v>
       </c>
       <c r="E8" t="n">
         <v>141</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -770,13 +770,13 @@
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="K8" t="n">
         <v>34</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="M8" t="n">
         <v>14</v>
@@ -787,19 +787,19 @@
         <v>2015</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5670</v>
       </c>
       <c r="C9" t="n">
         <v>75</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2362</v>
       </c>
       <c r="E9" t="n">
         <v>120</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -811,13 +811,13 @@
         <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="K9" t="n">
         <v>16</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="M9" t="n">
         <v>26</v>
@@ -828,37 +828,37 @@
         <v>2016</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="C10" t="n">
         <v>90</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6090</v>
       </c>
       <c r="E10" t="n">
         <v>166</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="K10" t="n">
         <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
         <v>16</v>
@@ -869,37 +869,37 @@
         <v>2017</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5493</v>
       </c>
       <c r="C11" t="n">
         <v>73</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>5045</v>
       </c>
       <c r="E11" t="n">
         <v>370</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
         <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="K11" t="n">
         <v>12</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>21</v>
@@ -910,19 +910,19 @@
         <v>2018</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>5992</v>
       </c>
       <c r="C12" t="n">
         <v>115</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>7984</v>
       </c>
       <c r="E12" t="n">
         <v>152</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="K12" t="n">
         <v>16</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
         <v>35</v>
@@ -951,19 +951,19 @@
         <v>2019</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>7340</v>
       </c>
       <c r="C13" t="n">
         <v>296</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>8488</v>
       </c>
       <c r="E13" t="n">
         <v>335</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
         <v>17</v>
@@ -975,13 +975,13 @@
         <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="K13" t="n">
         <v>17</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
@@ -992,37 +992,37 @@
         <v>2020</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5837</v>
       </c>
       <c r="C14" t="n">
         <v>1320</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>3887</v>
       </c>
       <c r="E14" t="n">
         <v>960</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
         <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I14" t="n">
         <v>249</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="K14" t="n">
         <v>251</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="M14" t="n">
         <v>91</v>
@@ -1033,37 +1033,37 @@
         <v>2021</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>12328</v>
       </c>
       <c r="C15" t="n">
         <v>5603</v>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>9729</v>
       </c>
       <c r="E15" t="n">
         <v>4205</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
         <v>291</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I15" t="n">
         <v>1765</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1617</v>
       </c>
       <c r="K15" t="n">
         <v>1361</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>779</v>
       </c>
       <c r="M15" t="n">
         <v>653</v>
@@ -1074,37 +1074,37 @@
         <v>2022</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>15339</v>
       </c>
       <c r="C16" t="n">
         <v>5000</v>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>11300</v>
       </c>
       <c r="E16" t="n">
         <v>3726</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G16" t="n">
         <v>82</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I16" t="n">
         <v>1419</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2029</v>
       </c>
       <c r="K16" t="n">
         <v>1365</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>670</v>
       </c>
       <c r="M16" t="n">
         <v>484</v>
@@ -1115,37 +1115,37 @@
         <v>2023</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>8119</v>
       </c>
       <c r="C17" t="n">
         <v>2105</v>
       </c>
       <c r="D17" t="n">
-        <v>40</v>
+        <v>4876</v>
       </c>
       <c r="E17" t="n">
         <v>1161</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
         <v>11</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
         <v>233</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="K17" t="n">
         <v>478</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="M17" t="n">
         <v>127</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -503,37 +503,37 @@
         <v>1865</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D2" t="n">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
         <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="L2" t="n">
         <v>119</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>2009</v>
       </c>
       <c r="B3" t="n">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C3" t="n">
-        <v>98</v>
+        <v>372</v>
       </c>
       <c r="D3" t="n">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>362</v>
       </c>
       <c r="K3" t="n">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="L3" t="n">
         <v>161</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -585,37 +585,37 @@
         <v>2715</v>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>412</v>
       </c>
       <c r="D4" t="n">
-        <v>1057</v>
+        <v>1067</v>
       </c>
       <c r="E4" t="n">
-        <v>253</v>
+        <v>467</v>
       </c>
       <c r="F4" t="n">
         <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>666</v>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="L4" t="n">
         <v>152</v>
       </c>
       <c r="M4" t="n">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">

--- a/results.xlsx
+++ b/results.xlsx
@@ -626,37 +626,37 @@
         <v>3931</v>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>617</v>
       </c>
       <c r="D5" t="n">
-        <v>2091</v>
+        <v>2102</v>
       </c>
       <c r="E5" t="n">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="K5" t="n">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="L5" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>2012</v>
       </c>
       <c r="B6" t="n">
-        <v>4631</v>
+        <v>4632</v>
       </c>
       <c r="C6" t="n">
-        <v>210</v>
+        <v>640</v>
       </c>
       <c r="D6" t="n">
-        <v>3240</v>
+        <v>3263</v>
       </c>
       <c r="E6" t="n">
-        <v>330</v>
+        <v>565</v>
       </c>
       <c r="F6" t="n">
         <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="I6" t="n">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="K6" t="n">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="L6" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M6" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -708,37 +708,37 @@
         <v>6168</v>
       </c>
       <c r="C7" t="n">
-        <v>109</v>
+        <v>657</v>
       </c>
       <c r="D7" t="n">
-        <v>2339</v>
+        <v>2348</v>
       </c>
       <c r="E7" t="n">
-        <v>234</v>
+        <v>553</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
         <v>896</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="L7" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M7" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -749,37 +749,37 @@
         <v>5710</v>
       </c>
       <c r="C8" t="n">
-        <v>49</v>
+        <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>1863</v>
+        <v>1885</v>
       </c>
       <c r="E8" t="n">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="F8" t="n">
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
         <v>651</v>
       </c>
       <c r="K8" t="n">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="L8" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M8" t="n">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -790,37 +790,37 @@
         <v>5670</v>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>545</v>
       </c>
       <c r="D9" t="n">
-        <v>2362</v>
+        <v>2378</v>
       </c>
       <c r="E9" t="n">
-        <v>120</v>
+        <v>516</v>
       </c>
       <c r="F9" t="n">
         <v>34</v>
       </c>
       <c r="G9" t="n">
+        <v>72</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
         <v>4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>955</v>
       </c>
       <c r="K9" t="n">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="L9" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M9" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -831,37 +831,37 @@
         <v>6000</v>
       </c>
       <c r="C10" t="n">
-        <v>90</v>
+        <v>745</v>
       </c>
       <c r="D10" t="n">
-        <v>6090</v>
+        <v>6111</v>
       </c>
       <c r="E10" t="n">
-        <v>166</v>
+        <v>492</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
         <v>580</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="L10" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M10" t="n">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>2017</v>
       </c>
       <c r="B11" t="n">
-        <v>5493</v>
+        <v>5502</v>
       </c>
       <c r="C11" t="n">
-        <v>73</v>
+        <v>643</v>
       </c>
       <c r="D11" t="n">
-        <v>5045</v>
+        <v>5078</v>
       </c>
       <c r="E11" t="n">
-        <v>370</v>
+        <v>727</v>
       </c>
       <c r="F11" t="n">
         <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="L11" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>2018</v>
       </c>
       <c r="B12" t="n">
-        <v>5992</v>
+        <v>5995</v>
       </c>
       <c r="C12" t="n">
-        <v>115</v>
+        <v>1071</v>
       </c>
       <c r="D12" t="n">
-        <v>7984</v>
+        <v>8010</v>
       </c>
       <c r="E12" t="n">
-        <v>152</v>
+        <v>500</v>
       </c>
       <c r="F12" t="n">
         <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>512</v>
       </c>
       <c r="K12" t="n">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="L12" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>2019</v>
       </c>
       <c r="B13" t="n">
-        <v>7340</v>
+        <v>7343</v>
       </c>
       <c r="C13" t="n">
-        <v>296</v>
+        <v>1285</v>
       </c>
       <c r="D13" t="n">
-        <v>8488</v>
+        <v>8519</v>
       </c>
       <c r="E13" t="n">
-        <v>335</v>
+        <v>666</v>
       </c>
       <c r="F13" t="n">
         <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K13" t="n">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="L13" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>2020</v>
       </c>
       <c r="B14" t="n">
-        <v>5837</v>
+        <v>5841</v>
       </c>
       <c r="C14" t="n">
-        <v>1320</v>
+        <v>3482</v>
       </c>
       <c r="D14" t="n">
-        <v>3887</v>
+        <v>4292</v>
       </c>
       <c r="E14" t="n">
-        <v>960</v>
+        <v>424</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>434</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="I14" t="n">
-        <v>249</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
         <v>378</v>
       </c>
       <c r="K14" t="n">
-        <v>251</v>
+        <v>559</v>
       </c>
       <c r="L14" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="M14" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>2021</v>
       </c>
       <c r="B15" t="n">
-        <v>12328</v>
+        <v>12354</v>
       </c>
       <c r="C15" t="n">
-        <v>5603</v>
+        <v>14423</v>
       </c>
       <c r="D15" t="n">
-        <v>9729</v>
+        <v>11470</v>
       </c>
       <c r="E15" t="n">
-        <v>4205</v>
+        <v>1147</v>
       </c>
       <c r="F15" t="n">
         <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>291</v>
+        <v>2676</v>
       </c>
       <c r="H15" t="n">
-        <v>229</v>
+        <v>1643</v>
       </c>
       <c r="I15" t="n">
-        <v>1765</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
         <v>1617</v>
       </c>
       <c r="K15" t="n">
-        <v>1361</v>
+        <v>3145</v>
       </c>
       <c r="L15" t="n">
-        <v>779</v>
+        <v>1196</v>
       </c>
       <c r="M15" t="n">
-        <v>653</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">

--- a/results.xlsx
+++ b/results.xlsx
@@ -1074,40 +1074,40 @@
         <v>2022</v>
       </c>
       <c r="B16" t="n">
-        <v>15339</v>
+        <v>15494</v>
       </c>
       <c r="C16" t="n">
-        <v>5000</v>
+        <v>11822</v>
       </c>
       <c r="D16" t="n">
-        <v>11300</v>
+        <v>12455</v>
       </c>
       <c r="E16" t="n">
-        <v>3726</v>
+        <v>1846</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>82</v>
+        <v>2664</v>
       </c>
       <c r="H16" t="n">
-        <v>46</v>
+        <v>1331</v>
       </c>
       <c r="I16" t="n">
-        <v>1419</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>2029</v>
+        <v>2034</v>
       </c>
       <c r="K16" t="n">
-        <v>1365</v>
+        <v>2909</v>
       </c>
       <c r="L16" t="n">
-        <v>670</v>
+        <v>857</v>
       </c>
       <c r="M16" t="n">
-        <v>484</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>2023</v>
       </c>
       <c r="B17" t="n">
-        <v>8119</v>
+        <v>8200</v>
       </c>
       <c r="C17" t="n">
-        <v>2105</v>
+        <v>4642</v>
       </c>
       <c r="D17" t="n">
-        <v>4876</v>
+        <v>5247</v>
       </c>
       <c r="E17" t="n">
-        <v>1161</v>
+        <v>571</v>
       </c>
       <c r="F17" t="n">
         <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>11</v>
+        <v>558</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="I17" t="n">
-        <v>233</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="K17" t="n">
-        <v>478</v>
+        <v>941</v>
       </c>
       <c r="L17" t="n">
-        <v>317</v>
+        <v>394</v>
       </c>
       <c r="M17" t="n">
-        <v>127</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -499,18 +499,42 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>55701</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7362</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40488</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5511</v>
+      </c>
+      <c r="F2" t="n">
+        <v>124</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1032</v>
+      </c>
+      <c r="H2" t="n">
+        <v>188</v>
+      </c>
+      <c r="I2" t="n">
+        <v>130</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7563</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1725</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2110</v>
+      </c>
+      <c r="M2" t="n">
+        <v>822</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,36 @@
           <t>avre_bucket 4</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>teletrabajo</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>bucket1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>bucket2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>bucket3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>bucket4</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>wfh</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -535,57 +565,201 @@
       <c r="M2" t="n">
         <v>822</v>
       </c>
+      <c r="N2" t="n">
+        <v>47</v>
+      </c>
+      <c r="O2" t="n">
+        <v>60657</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8719</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>42008</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6281</v>
+      </c>
+      <c r="S2" t="n">
+        <v>54246</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>3743</v>
+      </c>
+      <c r="C3" t="n">
+        <v>489</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3173</v>
+      </c>
+      <c r="E3" t="n">
+        <v>191</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>55</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47</v>
+      </c>
+      <c r="L3" t="n">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3883</v>
+      </c>
+      <c r="P3" t="n">
+        <v>549</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3208</v>
+      </c>
+      <c r="R3" t="n">
+        <v>211</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3822</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>3722</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3290</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2933</v>
+      </c>
+      <c r="E4" t="n">
+        <v>362</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>419</v>
+      </c>
+      <c r="H4" t="n">
+        <v>266</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>260</v>
+      </c>
+      <c r="K4" t="n">
+        <v>537</v>
+      </c>
+      <c r="L4" t="n">
+        <v>253</v>
+      </c>
+      <c r="M4" t="n">
+        <v>49</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10671</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3870</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11972</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3204</v>
+      </c>
+      <c r="R4" t="n">
+        <v>404</v>
+      </c>
+      <c r="S4" t="n">
+        <v>13732</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>36048</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30887</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29172</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3564</v>
+      </c>
+      <c r="F5" t="n">
+        <v>31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5898</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3137</v>
+      </c>
+      <c r="I5" t="n">
+        <v>24</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4802</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6995</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2447</v>
+      </c>
+      <c r="M5" t="n">
+        <v>177</v>
+      </c>
+      <c r="N5" t="n">
+        <v>37595</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39133</v>
+      </c>
+      <c r="P5" t="n">
+        <v>58163</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>32701</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3708</v>
+      </c>
+      <c r="S5" t="n">
+        <v>77842</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
